--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FEFB38-47EF-4533-B102-8DC6F0298F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC2616C-42C5-40F9-B85B-2AA96F3406DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>SaD,RaP,FaP,SaP,RaD,WaD,FaD,WaP</t>
-  </si>
-  <si>
-    <t>FaP,SaP,FaN,SaN,WaN,WaP,RaP,RaN</t>
+    <t>SaD,FaD,FaP,SaP,WaD,RaD,WaP,RaP</t>
+  </si>
+  <si>
+    <t>FaP,SaP,WaP,FaN,RaP,SaN,WaN,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaP,SaP,FaN,SaN,WaN,WaP,RaP,RaN</v>
+        <v>FaP,SaP,WaP,FaN,RaP,SaN,WaN,RaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>SaD,RaP,FaP,SaP,RaD,WaD,FaD,WaP</v>
+        <v>SaD,FaD,FaP,SaP,WaD,RaD,WaP,RaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C497A7-A9D8-4B3C-8CA7-57F9757D288B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F922834-2BDB-468F-8E3F-F6DE12214366}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B04A22-A2AC-4E27-B359-3F275BB1DEA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CACBC5-829E-486F-895C-62BC0557F61B}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="N4">
-        <v>0.2560595367934817</v>
+        <v>0.27553730672996724</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="N5">
-        <v>0.27553730672996724</v>
+        <v>0.39690767947648675</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N6">
-        <v>0.39690767947648675</v>
+        <v>0.2560595367934817</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79DE901-8190-4B38-9FA8-5E7AD191C878}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A3C535-9162-4B13-B154-5DDB80A142FB}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC2616C-42C5-40F9-B85B-2AA96F3406DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E607694B-CC39-4F13-8487-1217DBA30A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>SaD,FaD,FaP,SaP,WaD,RaD,WaP,RaP</t>
-  </si>
-  <si>
-    <t>FaP,SaP,WaP,FaN,RaP,SaN,WaN,RaN</t>
+    <t>SaD,WaD,RaP,FaP,SaP,FaD,WaP,RaD</t>
+  </si>
+  <si>
+    <t>FaP,SaP,FaN,SaN,WaN,RaP,RaN,WaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaP,SaP,WaP,FaN,RaP,SaN,WaN,RaN</v>
+        <v>FaP,SaP,FaN,SaN,WaN,RaP,RaN,WaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>SaD,FaD,FaP,SaP,WaD,RaD,WaP,RaP</v>
+        <v>SaD,WaD,RaP,FaP,SaP,FaD,WaP,RaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F922834-2BDB-468F-8E3F-F6DE12214366}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209257A4-041B-4BB9-8AF4-A96E09AFE0EB}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CACBC5-829E-486F-895C-62BC0557F61B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9346B6DC-547D-4E6B-B1E4-02AF22DAAB02}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1726,7 +1726,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>0.27553730672996724</v>
+        <v>0.27553730672996718</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A3C535-9162-4B13-B154-5DDB80A142FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538D0505-2132-4D82-B5A9-48CA568A47C3}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E607694B-CC39-4F13-8487-1217DBA30A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33064F5-F69F-4C05-8BAD-0F21F4390104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>SaD,WaD,RaP,FaP,SaP,FaD,WaP,RaD</t>
-  </si>
-  <si>
-    <t>FaP,SaP,FaN,SaN,WaN,RaP,RaN,WaP</t>
+    <t>RaP,WaP,SaD,WaD,RaD,FaD,FaP,SaP</t>
+  </si>
+  <si>
+    <t>FaN,WaP,SaN,WaN,RaN,FaP,SaP,RaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaP,SaP,FaN,SaN,WaN,RaP,RaN,WaP</v>
+        <v>FaN,WaP,SaN,WaN,RaN,FaP,SaP,RaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>SaD,WaD,RaP,FaP,SaP,FaD,WaP,RaD</v>
+        <v>RaP,WaP,SaD,WaD,RaD,FaD,FaP,SaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209257A4-041B-4BB9-8AF4-A96E09AFE0EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DF02B6-14D9-4884-A530-EDE1FF3FC35D}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9346B6DC-547D-4E6B-B1E4-02AF22DAAB02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B819B1-55E9-485C-B35B-27A46ECCA152}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="N4">
-        <v>0.27553730672996718</v>
+        <v>0.2560595367934817</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="N6">
-        <v>0.2560595367934817</v>
+        <v>0.27553730672996718</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538D0505-2132-4D82-B5A9-48CA568A47C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D061C134-A81F-4676-B50C-9016AF30BF61}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33064F5-F69F-4C05-8BAD-0F21F4390104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8BDEBD-D5F6-4D93-98C2-999CFF709914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>RaP,WaP,SaD,WaD,RaD,FaD,FaP,SaP</t>
-  </si>
-  <si>
-    <t>FaN,WaP,SaN,WaN,RaN,FaP,SaP,RaP</t>
+    <t>FaD,FaP,SaP,RaP,WaP,SaD,WaD,RaD</t>
+  </si>
+  <si>
+    <t>RaP,RaN,WaP,FaP,SaP,FaN,SaN,WaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaN,WaP,SaN,WaN,RaN,FaP,SaP,RaP</v>
+        <v>RaP,RaN,WaP,FaP,SaP,FaN,SaN,WaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaP,WaP,SaD,WaD,RaD,FaD,FaP,SaP</v>
+        <v>FaD,FaP,SaP,RaP,WaP,SaD,WaD,RaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DF02B6-14D9-4884-A530-EDE1FF3FC35D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C3970E-6D7E-40CF-871D-7EED3316B748}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B819B1-55E9-485C-B35B-27A46ECCA152}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A355F5-9068-44B0-989D-532DBB164F2D}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1726,7 +1726,7 @@
         <v>21</v>
       </c>
       <c r="N4">
-        <v>0.2560595367934817</v>
+        <v>0.25605953679348176</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1761,7 +1761,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>0.39690767947648675</v>
+        <v>0.39690767947648681</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1796,7 +1796,7 @@
         <v>75</v>
       </c>
       <c r="N6">
-        <v>0.27553730672996718</v>
+        <v>0.27553730672996729</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D061C134-A81F-4676-B50C-9016AF30BF61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3047729F-8E86-4A3E-AEA0-DD4829B65815}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8BDEBD-D5F6-4D93-98C2-999CFF709914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098864B3-A855-4A47-857A-EFEB8EB7871A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaD,FaP,SaP,RaP,WaP,SaD,WaD,RaD</t>
-  </si>
-  <si>
-    <t>RaP,RaN,WaP,FaP,SaP,FaN,SaN,WaN</t>
+    <t>RaP,WaD,RaD,FaP,SaP,SaD,WaP,FaD</t>
+  </si>
+  <si>
+    <t>FaN,WaP,SaN,WaN,FaP,SaP,RaN,RaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaP,RaN,WaP,FaP,SaP,FaN,SaN,WaN</v>
+        <v>FaN,WaP,SaN,WaN,FaP,SaP,RaN,RaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaD,FaP,SaP,RaP,WaP,SaD,WaD,RaD</v>
+        <v>RaP,WaD,RaD,FaP,SaP,SaD,WaP,FaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C3970E-6D7E-40CF-871D-7EED3316B748}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1660D735-AD44-4204-945B-6145ABA063C1}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A355F5-9068-44B0-989D-532DBB164F2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9A889B-E369-4D72-A1B3-00E526312447}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="N4">
-        <v>0.25605953679348176</v>
+        <v>0.27553730672996718</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1761,7 +1761,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>0.39690767947648681</v>
+        <v>0.39690767947648675</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="N6">
-        <v>0.27553730672996729</v>
+        <v>0.2560595367934817</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3047729F-8E86-4A3E-AEA0-DD4829B65815}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E33D8BA-B945-45DD-B6E0-92C2C41965AB}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098864B3-A855-4A47-857A-EFEB8EB7871A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B802F04-7AF0-40A4-8C1A-98184F3D0325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>RaP,WaD,RaD,FaP,SaP,SaD,WaP,FaD</t>
-  </si>
-  <si>
-    <t>FaN,WaP,SaN,WaN,FaP,SaP,RaN,RaP</t>
+    <t>FaP,SaP,WaD,WaP,RaD,RaP,SaD,FaD</t>
+  </si>
+  <si>
+    <t>SaN,WaN,RaN,WaP,FaN,FaP,SaP,RaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaN,WaP,SaN,WaN,FaP,SaP,RaN,RaP</v>
+        <v>SaN,WaN,RaN,WaP,FaN,FaP,SaP,RaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaP,WaD,RaD,FaP,SaP,SaD,WaP,FaD</v>
+        <v>FaP,SaP,WaD,WaP,RaD,RaP,SaD,FaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1660D735-AD44-4204-945B-6145ABA063C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65613761-512E-4117-9714-FC37D4FD61EE}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9A889B-E369-4D72-A1B3-00E526312447}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB30F6-F6C6-418F-B7EC-4D0C19C31917}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="N4">
-        <v>0.27553730672996718</v>
+        <v>0.25605953679348176</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1761,7 +1761,7 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <v>0.39690767947648675</v>
+        <v>0.39690767947648681</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="N6">
-        <v>0.2560595367934817</v>
+        <v>0.27553730672996729</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E33D8BA-B945-45DD-B6E0-92C2C41965AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E90BF84-D54D-4F3B-837C-1D5F0E1B9D03}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B802F04-7AF0-40A4-8C1A-98184F3D0325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE39B2A-E5EF-48AA-ABEE-A2FC248EEEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaP,SaP,WaD,WaP,RaD,RaP,SaD,FaD</t>
-  </si>
-  <si>
-    <t>SaN,WaN,RaN,WaP,FaN,FaP,SaP,RaP</t>
+    <t>FaP,SaP,WaD,RaD,WaP,SaD,RaP,FaD</t>
+  </si>
+  <si>
+    <t>WaP,RaN,FaP,SaP,SaN,WaN,FaN,RaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>SaN,WaN,RaN,WaP,FaN,FaP,SaP,RaP</v>
+        <v>WaP,RaN,FaP,SaP,SaN,WaN,FaN,RaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaP,SaP,WaD,WaP,RaD,RaP,SaD,FaD</v>
+        <v>FaP,SaP,WaD,RaD,WaP,SaD,RaP,FaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65613761-512E-4117-9714-FC37D4FD61EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47884EB6-F970-4DFE-94CD-2A8CC3807E90}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAB30F6-F6C6-418F-B7EC-4D0C19C31917}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3069303-5799-470C-890E-F06252C28B64}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N4">
-        <v>0.25605953679348176</v>
+        <v>0.39690767947648675</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.39690767947648681</v>
+        <v>0.27553730672996718</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="N6">
-        <v>0.27553730672996729</v>
+        <v>0.27149547700006416</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N7">
-        <v>0.27149547700006416</v>
+        <v>0.2560595367934817</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E90BF84-D54D-4F3B-837C-1D5F0E1B9D03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34435923-FA1A-4CC2-B045-25BBEF5872A5}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE39B2A-E5EF-48AA-ABEE-A2FC248EEEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C9C5D3-A356-455B-A29E-EB0A52CFEDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
     <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
-    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
-    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="85">
   <si>
     <t>UC_N</t>
   </si>
@@ -78,6 +76,24 @@
     <t>day</t>
   </si>
   <si>
+    <t>daynight</t>
+  </si>
+  <si>
+    <t>TimeSlices</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
+  </si>
+  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -277,99 +293,6 @@
   </si>
   <si>
     <t>~TimeSlices</t>
-  </si>
-  <si>
-    <t>com_fr</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>FaD</t>
-  </si>
-  <si>
-    <t>IMPNRGZ</t>
-  </si>
-  <si>
-    <t>elc_spv-CHE</t>
-  </si>
-  <si>
-    <t>FaN</t>
-  </si>
-  <si>
-    <t>FaP</t>
-  </si>
-  <si>
-    <t>RaD</t>
-  </si>
-  <si>
-    <t>RaN</t>
-  </si>
-  <si>
-    <t>RaP</t>
-  </si>
-  <si>
-    <t>SaD</t>
-  </si>
-  <si>
-    <t>SaN</t>
-  </si>
-  <si>
-    <t>SaP</t>
-  </si>
-  <si>
-    <t>WaD</t>
-  </si>
-  <si>
-    <t>WaN</t>
-  </si>
-  <si>
-    <t>WaP</t>
-  </si>
-  <si>
-    <t>~TFM_DINS-AT</t>
-  </si>
-  <si>
-    <t>elc_won-CHE</t>
-  </si>
-  <si>
-    <t>g_yrfr</t>
-  </si>
-  <si>
-    <t>elc_roadtransport</t>
-  </si>
-  <si>
-    <t>day_night</t>
-  </si>
-  <si>
-    <t>FaP,SaP,WaD,RaD,WaP,SaD,RaP,FaD</t>
-  </si>
-  <si>
-    <t>WaP,RaN,FaP,SaP,SaN,WaN,FaN,RaP</t>
-  </si>
-  <si>
-    <t>elc_buildings</t>
-  </si>
-  <si>
-    <t>elc_industry</t>
-  </si>
-  <si>
-    <t>com_pkflx</t>
-  </si>
-  <si>
-    <t>ncap_afs</t>
-  </si>
-  <si>
-    <t>pset_ci</t>
-  </si>
-  <si>
-    <t>hydro</t>
-  </si>
-  <si>
-    <t>~TFM_INS-AT</t>
   </si>
 </sst>
 </file>
@@ -862,7 +785,7 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
@@ -883,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -898,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -906,21 +829,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>WaP,RaN,FaP,SaP,SaN,WaN,FaN,RaP</v>
+        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -938,21 +861,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaP,SaP,WaD,RaD,WaP,SaD,RaP,FaD</v>
+        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -964,26 +887,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1011,551 +934,551 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -1565,1056 +1488,77 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47884EB6-F970-4DFE-94CD-2A8CC3807E90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD05C393-3D1A-49BE-835D-A0A39A13276F}">
   <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3069303-5799-470C-890E-F06252C28B64}">
-  <dimension ref="B2:O15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4">
-        <v>0.18529991000000001</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4">
-        <v>0.13552044653615647</v>
-      </c>
-      <c r="J4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4">
-        <v>0.39690767947648675</v>
-      </c>
-      <c r="O4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5">
-        <v>2.15285E-3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5">
-        <v>0.14848824162929666</v>
-      </c>
-      <c r="J5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" t="s">
-        <v>97</v>
-      </c>
-      <c r="M5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5">
-        <v>0.27553730672996718</v>
-      </c>
-      <c r="O5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6">
-        <v>2.403918E-2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6">
-        <v>2.2043326081725625E-2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>97</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6">
-        <v>0.27149547700006416</v>
-      </c>
-      <c r="O6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7">
-        <v>0.17497188</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7">
-        <v>0.11976913280374864</v>
-      </c>
-      <c r="J7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7">
-        <v>0.2560595367934817</v>
-      </c>
-      <c r="O7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8">
-        <v>9.1880699999999996E-3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8">
-        <v>0.11553124774072061</v>
-      </c>
-      <c r="J8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9">
-        <v>3.4280539999999998E-2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9">
-        <v>1.9094639782450292E-2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10">
-        <v>0.31508786</v>
-      </c>
-      <c r="D10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10">
-        <v>5.8167667198121241E-2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11">
-        <v>3.045927E-2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11">
-        <v>4.4246116806080413E-2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12">
-        <v>5.7894290000000001E-2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12">
-        <v>9.1936907841933847E-3</v>
-      </c>
-      <c r="J12" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13">
-        <v>0.15252329000000001</v>
-      </c>
-      <c r="D13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13">
-        <v>0.13955162631593443</v>
-      </c>
-      <c r="J13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14">
-        <v>0.15921940641376359</v>
-      </c>
-      <c r="J14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15">
-        <v>1.410266E-2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15">
-        <v>2.9174457907663626E-2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34435923-FA1A-4CC2-B045-25BBEF5872A5}">
-  <dimension ref="B2:O27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>0.11426940639269406</v>
-      </c>
-      <c r="C4">
-        <v>0.16087081189037786</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4">
-        <v>0.12090138187557425</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4">
-        <v>0.17617534240471389</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>0.11426940639269406</v>
-      </c>
-      <c r="C5">
-        <v>5.2547713165767528E-2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5">
-        <v>9.5242975452984727E-2</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" t="s">
-        <v>85</v>
-      </c>
-      <c r="O5">
-        <v>0.33306575146351802</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>2.0776255707762557E-2</v>
-      </c>
-      <c r="C6">
-        <v>3.5896543437005365E-2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6">
-        <v>2.2069722995092467E-2</v>
-      </c>
-      <c r="M6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6">
-        <v>0.17286248685938022</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="C7">
-        <v>0.16263862301005233</v>
-      </c>
-      <c r="D7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7">
-        <v>0.12744469596891173</v>
-      </c>
-      <c r="M7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7">
-        <v>0.14227252545542379</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="C8">
-        <v>5.3125160563193538E-2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8">
-        <v>0.10132255701296763</v>
-      </c>
-      <c r="M8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" t="s">
-        <v>88</v>
-      </c>
-      <c r="O8">
-        <v>0.28994593786435274</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>2.1004566210045664E-2</v>
-      </c>
-      <c r="C9">
-        <v>3.6291010947302131E-2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9">
-        <v>2.3070200877549799E-2</v>
-      </c>
-      <c r="M9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9">
-        <v>0.14528556003353565</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="C10">
-        <v>0.16263862301005233</v>
-      </c>
-      <c r="D10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10">
-        <v>0.11289822530250294</v>
-      </c>
-      <c r="M10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O10">
-        <v>0.12685347555621185</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="C11">
-        <v>5.3125160563193538E-2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11">
-        <v>8.7639671683306802E-2</v>
-      </c>
-      <c r="M11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" t="s">
-        <v>91</v>
-      </c>
-      <c r="O11">
-        <v>0.23017486315106495</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12">
-        <v>2.1004566210045664E-2</v>
-      </c>
-      <c r="C12">
-        <v>3.6291010947302131E-2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12">
-        <v>2.0015393677460164E-2</v>
-      </c>
-      <c r="M12" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" t="s">
-        <v>92</v>
-      </c>
-      <c r="O12">
-        <v>0.10493351197406975</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13">
-        <v>0.11301369863013698</v>
-      </c>
-      <c r="C13">
-        <v>0.15910300077070333</v>
-      </c>
-      <c r="D13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13">
-        <v>0.14393901433677572</v>
-      </c>
-      <c r="M13" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" t="s">
-        <v>93</v>
-      </c>
-      <c r="O13">
-        <v>8.8349265587104986E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14">
-        <v>0.11301369863013698</v>
-      </c>
-      <c r="C14">
-        <v>5.197026576834151E-2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14">
-        <v>0.11874698574208462</v>
-      </c>
-      <c r="M14" t="s">
-        <v>13</v>
-      </c>
-      <c r="N14" t="s">
-        <v>94</v>
-      </c>
-      <c r="O14">
-        <v>0.18964786719685711</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15">
-        <v>2.0547945205479451E-2</v>
-      </c>
-      <c r="C15">
-        <v>3.5502075926708607E-2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15">
-        <v>2.6709175074789045E-2</v>
-      </c>
-      <c r="M15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N15" t="s">
-        <v>95</v>
-      </c>
-      <c r="O15">
-        <v>5.7719826051751744E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H16" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16">
-        <v>0.11505209570526871</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H17" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17">
-        <v>0.11326317658802752</v>
-      </c>
-    </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H18" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18">
-        <v>2.0924674113243509E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H19" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19">
-        <v>0.11636242545027597</v>
-      </c>
-    </row>
-    <row r="20" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H20" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20">
-        <v>0.11454117462932174</v>
-      </c>
-    </row>
-    <row r="21" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21">
-        <v>2.1149723663419471E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H22" t="s">
-        <v>104</v>
-      </c>
-      <c r="I22" t="s">
-        <v>90</v>
-      </c>
-      <c r="J22">
-        <v>0.11625089949760344</v>
-      </c>
-    </row>
-    <row r="23" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H23" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23">
-        <v>0.1144898583519047</v>
-      </c>
-    </row>
-    <row r="24" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H24" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J24">
-        <v>2.1100861171254748E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H25" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" t="s">
-        <v>93</v>
-      </c>
-      <c r="J25">
-        <v>0.1139343210030094</v>
-      </c>
-    </row>
-    <row r="26" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H26" t="s">
-        <v>104</v>
-      </c>
-      <c r="I26" t="s">
-        <v>94</v>
-      </c>
-      <c r="J26">
-        <v>0.11217791802096555</v>
-      </c>
-    </row>
-    <row r="27" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H27" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" t="s">
-        <v>95</v>
-      </c>
-      <c r="J27">
-        <v>2.0752871805705189E-2</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C9C5D3-A356-455B-A29E-EB0A52CFEDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6234CD8-7990-4575-9839-66DDCEE0DD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1488,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD05C393-3D1A-49BE-835D-A0A39A13276F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC69B2C-803B-4C7A-80A8-F732F0310839}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6234CD8-7990-4575-9839-66DDCEE0DD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{276F146E-C60C-421E-9CC7-B3C650E95F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="86">
   <si>
     <t>UC_N</t>
   </si>
@@ -268,6 +268,9 @@
     <t>timeslice</t>
   </si>
   <si>
+    <t>~TimeSlices</t>
+  </si>
+  <si>
     <t>season</t>
   </si>
   <si>
@@ -292,14 +295,14 @@
     <t>W,R,S,F</t>
   </si>
   <si>
-    <t>~TimeSlices</t>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,8 +356,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,8 +407,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -419,6 +467,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -430,7 +508,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -446,6 +524,13 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -468,6 +553,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A2A27F-754D-F454-5489-E15B872EA85B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1488,80 +1628,107 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC69B2C-803B-4C7A-80A8-F732F0310839}">
-  <dimension ref="B2:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254CB307-C922-4B06-89C2-CE88A63B1B7E}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="6" width="10.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="1" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F11" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="15" t="s">
         <v>27</v>
       </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>